--- a/Spider/11.xlsx
+++ b/Spider/11.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\E_test\chaojijishi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\新建文件夹 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CC6832-1BB5-4EBB-A2E0-7CEE4BA07937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1262897-1131-4C15-8304-7F8CE12C1CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-720" yWindow="3795" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,745 +344,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A146"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>16571325928</v>
+        <v>16571715265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>16756305973</v>
+        <v>17017919179</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>17092648187</v>
+        <v>16536227576</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16232401041</v>
+        <v>16756606288</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>16259508563</v>
+        <v>16538613791</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16222651532</v>
+        <v>17019414612</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16536733530</v>
+        <v>16521620266</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>16227210941</v>
+        <v>16785460010</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16210993065</v>
+        <v>16521512055</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>17017919187</v>
+        <v>16756020782</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>16536582294</v>
+        <v>16232403852</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>17038390933</v>
+        <v>16571112326</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>16228349894</v>
+        <v>16521519066</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>16263386962</v>
+        <v>16536765330</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16222652480</v>
+        <v>16756605811</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>17145236298</v>
+        <v>16536797932</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17144346295</v>
+        <v>16259504571</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16520751370</v>
+        <v>17050588697</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17019414420</v>
+        <v>17017918829</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16756612989</v>
+        <v>16521511202</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16232404736</v>
+        <v>16536611372</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>16211722331</v>
+        <v>16571189913</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>16259504804</v>
+        <v>16222651389</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>16571132890</v>
+        <v>16259508492</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>16522199838</v>
+        <v>17019416438</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16259504775</v>
+        <v>16536639036</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>17050549010</v>
+        <v>17025594853</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>17087131711</v>
+        <v>16756090693</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>16218822076</v>
+        <v>17025828045</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>16222651529</v>
+        <v>17019418367</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>16222652147</v>
+        <v>17092649120</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>16533173914</v>
+        <v>17108391549</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>17040272767</v>
+        <v>16536766035</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>16210994739</v>
+        <v>16756612780</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>16536799210</v>
+        <v>17019414693</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>16210743765</v>
+        <v>16521620553</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>16227210332</v>
+        <v>16536793153</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>16536737420</v>
+        <v>17144318695</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>16756090387</v>
+        <v>16521627522</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>16211721032</v>
+        <v>17146641505</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16536730248</v>
+        <v>16571189645</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>16227210436</v>
+        <v>16536799259</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>16571182458</v>
+        <v>17025597075</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>16232403034</v>
+        <v>16521518366</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17050588975</v>
+        <v>16222651572</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>16259509339</v>
+        <v>16222651443</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>16521597620</v>
+        <v>16756090217</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>17108390506</v>
+        <v>16250451412</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>17050588583</v>
+        <v>17019415413</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>16536610305</v>
+        <v>16521620600</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>16571325918</v>
+        <v>16536225604</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>16211959285</v>
+        <v>16536766072</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>16263388693</v>
+        <v>16571189741</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>16536799153</v>
+        <v>16756305990</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>16536222415</v>
+        <v>16250451372</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>16571302924</v>
+        <v>17025598409</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>16227211530</v>
+        <v>16537630391</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>16210991560</v>
+        <v>17136262408</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>16756681892</v>
+        <v>16571185372</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>16536737045</v>
+        <v>17050999037</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>16210991542</v>
+        <v>17050761880</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>16798260941</v>
+        <v>17017919270</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>16522166118</v>
+        <v>16536227579</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>16259508157</v>
+        <v>16237903664</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>17092648983</v>
+        <v>16536797595</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>16536224451</v>
+        <v>16756605766</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>16211957685</v>
+        <v>16537639654</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>16232405473</v>
+        <v>16536793120</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>16517685561</v>
+        <v>16259508549</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>16211729520</v>
+        <v>16537630110</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>16228206174</v>
+        <v>16571303221</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>16250451603</v>
+        <v>17144317980</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>17068216914</v>
+        <v>16536580474</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>16731806278</v>
+        <v>16520960323</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>16259508620</v>
+        <v>16250451645</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>16238822669</v>
+        <v>16259504492</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>16238822531</v>
+        <v>16571304893</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>16259509658</v>
+        <v>17025595874</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>16250451653</v>
+        <v>16756090770</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>17108391369</v>
+        <v>16521621988</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>16210991547</v>
+        <v>16785884287</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>17019415467</v>
+        <v>16259506112</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>17108390968</v>
+        <v>17025597067</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>17092646589</v>
+        <v>17025598343</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>16222652478</v>
+        <v>16537639974</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>16211952784</v>
+        <v>16756090716</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>16571185751</v>
+        <v>16521988747</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>16537630536</v>
+        <v>17019418365</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>16785883405</v>
+        <v>16259504792</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>16210994722</v>
+        <v>16571715844</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>17050589024</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>16537639245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>16228204958</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>16210994655</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>16536894464</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>16211957435</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>16571181492</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>16537630362</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>17144346209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>16210992974</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>17108390094</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>16259508201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>17145236330</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>16210749420</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>17025596007</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>16210745124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>16536797559</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>16250451564</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>16232404140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>17145236635</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>16756072080</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>16259508260</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>16536895679</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>16222653603</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>17108391169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>17017919363</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>16571133533</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>17025596934</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>16211729967</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>17108390052</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>17019414695</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>16227210450</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>16259508197</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>15234963540</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>16764763450</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>16536730121</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>17145235922</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>16731806138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>16222651380</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>16232406543</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>17017919394</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>16222653165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>16536732348</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>16537632547</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>16210747735</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>16210745268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>16522059516</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>16521516012</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>16536730387</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>16756608978</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>16756305632</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>17050545664</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>16222653514</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>16785884297</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>16537637434</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>16211957564</v>
+        <v>17019413495</v>
       </c>
     </row>
   </sheetData>

--- a/Spider/11.xlsx
+++ b/Spider/11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\dl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\dl\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5405E785-3AF4-4AB0-837E-4DD63E91DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CD1B7B-579C-4A9C-8311-E79588C8EC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,158 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>17050589730</t>
-  </si>
-  <si>
-    <t>17043813079</t>
-  </si>
-  <si>
-    <t>16536644603</t>
-  </si>
-  <si>
-    <t>16536644536</t>
-  </si>
-  <si>
-    <t>16536895354</t>
-  </si>
-  <si>
-    <t>18558952754</t>
-  </si>
-  <si>
-    <t>16537630663</t>
-  </si>
-  <si>
-    <t>15874095604</t>
-  </si>
-  <si>
-    <t>16536739710</t>
-  </si>
-  <si>
-    <t>17026859358</t>
-  </si>
-  <si>
-    <t>17000720283</t>
-  </si>
-  <si>
-    <t>17050588575</t>
-  </si>
-  <si>
-    <t>16571132870</t>
-  </si>
-  <si>
-    <t>16521630357</t>
-  </si>
-  <si>
-    <t>16537635420</t>
-  </si>
-  <si>
-    <t>17023526932</t>
-  </si>
-  <si>
-    <t>16218822049</t>
-  </si>
-  <si>
-    <t>16536736475</t>
-  </si>
-  <si>
-    <t>17013528875</t>
-  </si>
-  <si>
-    <t>16521639598</t>
-  </si>
-  <si>
-    <t>16536645073</t>
-  </si>
-  <si>
-    <t>16536612172</t>
-  </si>
-  <si>
-    <t>16536611707</t>
-  </si>
-  <si>
-    <t>16571303881</t>
-  </si>
-  <si>
-    <t>17013527885</t>
-  </si>
-  <si>
-    <t>17020123298</t>
-  </si>
-  <si>
-    <t>17026859962</t>
-  </si>
-  <si>
-    <t>17092649928</t>
-  </si>
-  <si>
-    <t>16536739742</t>
-  </si>
-  <si>
-    <t>16756072760</t>
-  </si>
-  <si>
-    <t>18659529970</t>
-  </si>
-  <si>
-    <t>16536644631</t>
-  </si>
-  <si>
-    <t>16537634971</t>
-  </si>
-  <si>
-    <t>17019417014</t>
-  </si>
-  <si>
-    <t>16571181457</t>
-  </si>
-  <si>
-    <t>16536582438</t>
-  </si>
-  <si>
-    <t>17017983003</t>
-  </si>
-  <si>
-    <t>17000125717</t>
-  </si>
-  <si>
-    <t>16536226446</t>
-  </si>
-  <si>
-    <t>16571715704</t>
-  </si>
-  <si>
-    <t>17017983152</t>
-  </si>
-  <si>
-    <t>17024533802</t>
-  </si>
-  <si>
-    <t>13114109658</t>
-  </si>
-  <si>
-    <t>17108392641</t>
-  </si>
-  <si>
-    <t>17017919502</t>
-  </si>
-  <si>
-    <t>17013536809</t>
-  </si>
-  <si>
-    <t>17013536786</t>
-  </si>
-  <si>
-    <t>16536613126</t>
-  </si>
-  <si>
-    <t>16537635013</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,260 +344,1020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>16536225653</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>16536225653</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3">
+        <v>16536227097</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4">
+        <v>17025827990</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5">
+        <v>17024539351</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6">
+        <v>16536619344</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7">
+        <v>16536619415</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8">
+        <v>17013527003</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9">
+        <v>16536617749</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10">
+        <v>16571303410</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11">
+        <v>17020122498</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12">
+        <v>16571715922</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13">
+        <v>16571303039</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14">
+        <v>17024538452</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15">
+        <v>16756323631</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16">
+        <v>16521597866</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17">
+        <v>17026913150</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18">
+        <v>16571303524</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19">
+        <v>16536645232</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20">
+        <v>16538614028</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21">
+        <v>16536736324</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22">
+        <v>16536226641</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23">
+        <v>16571303808</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24">
+        <v>16536611663</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25">
+        <v>16521919646</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26">
+        <v>17013536540</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27">
+        <v>16521988902</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28">
+        <v>16210993064</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29">
+        <v>16536580948</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30">
+        <v>16211956380</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31">
+        <v>17023206502</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32">
+        <v>16538614066</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33">
+        <v>16536611997</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34">
+        <v>16536797957</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35">
+        <v>17092649635</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36">
+        <v>16536611962</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37">
+        <v>17024485520</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38">
+        <v>16537635145</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39">
+        <v>17013536332</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40">
+        <v>16536226724</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41">
+        <v>16571304037</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42">
+        <v>17092648716</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>42</v>
+      <c r="A43">
+        <v>16536223453</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>43</v>
+      <c r="A44">
+        <v>16232408437</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>44</v>
+      <c r="A45">
+        <v>17026913162</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>45</v>
+      <c r="A46">
+        <v>16536226136</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>46</v>
+      <c r="A47">
+        <v>16756073961</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>47</v>
+      <c r="A48">
+        <v>16537635204</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>48</v>
+      <c r="A49">
+        <v>17026911592</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>17023525270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>17043817614</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>16536645090</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>16536225507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>17013526884</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>16537635340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>17019414259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>16521919192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>16521639639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>16756253391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>17025826749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>17013537685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>17024483940</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>16536637669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>16521637011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>16756253226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>17049531802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>16521582424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>16536645491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>16756252831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>17050589883</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>16521982911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>13107853932</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>16756253031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>17013537730</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>16536610917</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>16536225503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>16238821255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>17108393167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>16536221403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>17000124806</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>16536646242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>17025824085</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>16536229335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>16235237485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>16571185328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17050997855</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>16536645537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>17050995311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>16521423188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>16521580688</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>16571189960</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>17013527735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>17020122499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>17024535340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>17050999210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>17013527447</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>16536644619</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>16571185079</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>16536896741</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>17019414619</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>16756715283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>17173272824</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>16536645506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>16571184464</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>17000128393</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>16536894541</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>16536589693</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>17019415486</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>17019414601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>17073608451</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>16521980299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>16571302387</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>16521625849</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>16536639203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>16259507352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>16537634954</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>16536735417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>16536225775</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>17020124908</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>16536896413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>16259505868</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>17023525679</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>16536589779</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>16521988705</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>16756252859</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>17013537687</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>16571112610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>16537633759</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>13015820763</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>17000122876</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>16521910330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>16536580342</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>16538612300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>16538613783</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>17144213503</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>16537633765</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>16536736145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>17043810189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>17025824313</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>16756715291</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>16536645016</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>16521621992</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>17024535354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>16536226171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>16536580068</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>17017919437</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>16537632236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>16571716382</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>16259507317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>17024534693</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>17024483710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>16536894220</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>13067093165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>17024483600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>17023206709</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>16571716017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>16537633593</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>17084941086</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>16537635137</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>17050991120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>16536646142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>16538613825</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>17092647034</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>16571133020</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>17017915902</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>17025597061</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>17017911031</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>16536580468</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>16537632351</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>17023206590</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>17013527004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>16536646171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>16536580377</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>16521625866</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>16521980277</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>16536894270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>16536229290</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>17013536553</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>17092648314</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>16521985711</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>16571133511</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>16537632329</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>16521589117</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>16536797951</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>16536225361</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>17020101461</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>17026859356</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>16536611667</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>16571715410</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>16536224727</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>16536227417</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>16536225931</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>16756072956</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>16536646069</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>16521589028</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>17000765480</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>17013527884</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>16536644793</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>16570998195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>16235237525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>17050991484</v>
       </c>
     </row>
   </sheetData>

--- a/Spider/11.xlsx
+++ b/Spider/11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\dl\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924437E-EA8A-4793-AEC1-9B95CEACA1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681F2F02-A1CC-4366-9DF1-796F45F1D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="3255" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,240 +344,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>17146641282</v>
+        <v>16756073826</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>16521910633</v>
+        <v>16756073287</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>17005313112</v>
+        <v>17108390953</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16270631393</v>
+        <v>18659513869</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>16536227534</v>
+        <v>18659908645</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>17005318167</v>
+        <v>18659921793</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>17012687534</v>
+        <v>17013489083</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>16571184827</v>
+        <v>17019413027</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>17012687664</v>
+        <v>17020412247</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>17005316229</v>
+        <v>17020411759</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>17013536327</v>
+        <v>17171261254</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16571183860</v>
+        <v>17020412359</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>16521592799</v>
+        <v>15659096045</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>16536735746</v>
+        <v>15559189337</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>17145199368</v>
+        <v>18558937956</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>18559576852</v>
+        <v>16235752084</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16798261804</v>
+        <v>16536735249</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17005316289</v>
+        <v>13974720891</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17012685129</v>
+        <v>17020411803</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16235759574</v>
+        <v>16756395659</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16235754679</v>
+        <v>18558942234</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>16235750859</v>
+        <v>16235757145</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>18120901915</v>
+        <v>17023521809</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>16571763713</v>
+        <v>15695957740</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>16798261048</v>
+        <v>17020412041</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16235752324</v>
+        <v>16536613271</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>18649978940</v>
+        <v>16222652948</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>16235758687</v>
+        <v>16521595338</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>16235757347</v>
+        <v>18559485741</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>16536732764</v>
+        <v>18558944575</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>17013537550</v>
+        <v>15559102874</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>16537633762</v>
+        <v>18559589583</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>16235759181</v>
+        <v>16270408509</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>17012687784</v>
+        <v>16273562561</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>17011271046</v>
+        <v>16570997963</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>16536733249</v>
+        <v>16232404091</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>18694709110</v>
+        <v>13225984435</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>17005315606</v>
+        <v>16536739361</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>17005319446</v>
+        <v>16570998539</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>16536610065</v>
+        <v>17170873275</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16521632522</v>
+        <v>17012681578</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>16273566758</v>
+        <v>17170873325</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>16756023031</v>
+        <v>16756326330</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>13108600693</v>
+        <v>17170873173</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>16235759212</v>
+        <v>17020411845</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>17020410700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>16571184590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>17013487487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>16536611057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>16218386445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>16756073669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>17020411058</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>17171261264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>17020410907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>17020411863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>16521599069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>15659716447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>17171261403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>16270403091</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>17166764340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>16756326692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>15559029832</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>15659051274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>17020411747</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>16235751349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>15734966283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>18659503953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>17005311323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>18659844243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>17020411021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>16750121431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>17020412300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>17020410439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>13110822652</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>13275506828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>17013487284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>15396659827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>13108898032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>16571133213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>17020411742</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>17020410849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>17020410371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>16521913599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17136264003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>17026973892</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17166763504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>17023272811</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>18559472460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>15506952794</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>17020410924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>16571181894</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>16273566806</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>16536739170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>16750121343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>16536739306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>16756395652</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>17108391260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>17144425056</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>16521582157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>17020411667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>17170873285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>16571185717</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>17020411334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>16521627255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>17020411382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>17108390437</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>16273565671</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>17013487499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>16571112623</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>16521912020</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>17020411245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>17088303485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>17019416447</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>16750121434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>16270404945</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>15655059691</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>16273569662</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>16224723085</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>13107848229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>15551812182</v>
       </c>
     </row>
   </sheetData>

--- a/Spider/11.xlsx
+++ b/Spider/11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\dl\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF8137-08EB-44B6-ADD3-F949237A1A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924437E-EA8A-4793-AEC1-9B95CEACA1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3255" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -352,142 +352,232 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>17010019244</v>
+        <v>17146641282</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>16218386241</v>
+        <v>16521910633</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>17013536458</v>
+        <v>17005313112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>15594963967</v>
+        <v>16270631393</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>17010016239</v>
+        <v>16536227534</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16536589703</v>
+        <v>17005318167</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16520961355</v>
+        <v>17012687534</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>16536646247</v>
+        <v>16571184827</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>17108391304</v>
+        <v>17012687664</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>16222653356</v>
+        <v>17005316229</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>17010019293</v>
+        <v>17013536327</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16798261475</v>
+        <v>16571183860</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>17119013256</v>
+        <v>16521592799</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>17019418852</v>
+        <v>16536735746</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>17019414406</v>
+        <v>17145199368</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>17013537553</v>
+        <v>18559576852</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>13067063364</v>
+        <v>16798261804</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16756715206</v>
+        <v>17005316289</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16222652638</v>
+        <v>17012685129</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16536897453</v>
+        <v>16235759574</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16521910996</v>
+        <v>16235754679</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>13159034905</v>
+        <v>16235750859</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>17019414598</v>
+        <v>18120901915</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>17010013406</v>
+        <v>16571763713</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>17143468023</v>
+        <v>16798261048</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16756023001</v>
+        <v>16235752324</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>17010012837</v>
+        <v>18649978940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>16235758687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>16235757347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>16536732764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>17013537550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>16537633762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>16235759181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>17012687784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>17011271046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>16536733249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>18694709110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>17005315606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>17005319446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>16536610065</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>16521632522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>16273566758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>16756023031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>13108600693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>16235759212</v>
       </c>
     </row>
   </sheetData>
